--- a/SchedulingData/static8/pso/scheduling1_11.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,344 +462,344 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E2" t="n">
-        <v>24.66</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144.16</v>
+        <v>69.34</v>
       </c>
       <c r="E3" t="n">
-        <v>20.864</v>
+        <v>26.216</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>144.16</v>
+        <v>77.2</v>
       </c>
       <c r="D4" t="n">
-        <v>223.94</v>
+        <v>134.1</v>
       </c>
       <c r="E4" t="n">
-        <v>16.496</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.9</v>
+        <v>58.24</v>
       </c>
       <c r="E5" t="n">
-        <v>26.2</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>69.98</v>
+        <v>81.78</v>
       </c>
       <c r="E6" t="n">
-        <v>26.192</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>69.34</v>
       </c>
       <c r="D7" t="n">
-        <v>77.09999999999999</v>
+        <v>133.94</v>
       </c>
       <c r="E7" t="n">
-        <v>26.44</v>
+        <v>23.376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>223.94</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>265.74</v>
+        <v>70.86</v>
       </c>
       <c r="E8" t="n">
-        <v>13.936</v>
+        <v>26.064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>77.09999999999999</v>
+        <v>58.24</v>
       </c>
       <c r="D9" t="n">
-        <v>127.7</v>
+        <v>123.94</v>
       </c>
       <c r="E9" t="n">
-        <v>22.02</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.1</v>
       </c>
       <c r="D10" t="n">
-        <v>77.23999999999999</v>
+        <v>194.1</v>
       </c>
       <c r="E10" t="n">
-        <v>24.956</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>77.23999999999999</v>
+        <v>81.78</v>
       </c>
       <c r="D11" t="n">
-        <v>132.44</v>
+        <v>157.04</v>
       </c>
       <c r="E11" t="n">
-        <v>21.056</v>
+        <v>22.036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69.98</v>
+        <v>123.94</v>
       </c>
       <c r="D12" t="n">
-        <v>125.4</v>
+        <v>181.02</v>
       </c>
       <c r="E12" t="n">
-        <v>22.76</v>
+        <v>18.288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>127.7</v>
+        <v>181.02</v>
       </c>
       <c r="D13" t="n">
-        <v>173.04</v>
+        <v>225.88</v>
       </c>
       <c r="E13" t="n">
-        <v>19.116</v>
+        <v>15.432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>173.04</v>
+        <v>157.04</v>
       </c>
       <c r="D14" t="n">
-        <v>258.4</v>
+        <v>220.9</v>
       </c>
       <c r="E14" t="n">
-        <v>15.2</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125.4</v>
+        <v>194.1</v>
       </c>
       <c r="D15" t="n">
-        <v>187.5</v>
+        <v>247.4</v>
       </c>
       <c r="E15" t="n">
-        <v>19.16</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>265.74</v>
+        <v>225.88</v>
       </c>
       <c r="D16" t="n">
-        <v>334.04</v>
+        <v>275.58</v>
       </c>
       <c r="E16" t="n">
-        <v>9.736000000000001</v>
+        <v>11.592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>132.44</v>
+        <v>247.4</v>
       </c>
       <c r="D17" t="n">
-        <v>195.08</v>
+        <v>295.1</v>
       </c>
       <c r="E17" t="n">
-        <v>16.912</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>187.5</v>
+        <v>70.86</v>
       </c>
       <c r="D18" t="n">
-        <v>234.38</v>
+        <v>126.4</v>
       </c>
       <c r="E18" t="n">
-        <v>15.112</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>258.4</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>297.92</v>
+        <v>66.02</v>
       </c>
       <c r="E19" t="n">
-        <v>11.888</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>297.92</v>
+        <v>295.1</v>
       </c>
       <c r="D20" t="n">
-        <v>353.82</v>
+        <v>362.88</v>
       </c>
       <c r="E20" t="n">
-        <v>8.407999999999999</v>
+        <v>5.492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>195.08</v>
+        <v>275.58</v>
       </c>
       <c r="D21" t="n">
-        <v>272.76</v>
+        <v>329.36</v>
       </c>
       <c r="E21" t="n">
-        <v>12.264</v>
+        <v>8.343999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>49.9</v>
+        <v>329.36</v>
       </c>
       <c r="D22" t="n">
-        <v>97.81999999999999</v>
+        <v>374.8</v>
       </c>
       <c r="E22" t="n">
-        <v>22.548</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>334.04</v>
+        <v>66.02</v>
       </c>
       <c r="D23" t="n">
-        <v>393.34</v>
+        <v>127.12</v>
       </c>
       <c r="E23" t="n">
-        <v>6.896</v>
+        <v>21.588</v>
       </c>
     </row>
     <row r="24">
@@ -884,155 +884,155 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>374.8</v>
       </c>
       <c r="D24" t="n">
-        <v>66.73999999999999</v>
+        <v>430.44</v>
       </c>
       <c r="E24" t="n">
-        <v>25.996</v>
+        <v>2.476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>393.34</v>
+        <v>126.4</v>
       </c>
       <c r="D25" t="n">
-        <v>469.44</v>
+        <v>178.3</v>
       </c>
       <c r="E25" t="n">
-        <v>3.376</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>234.38</v>
+        <v>220.9</v>
       </c>
       <c r="D26" t="n">
-        <v>304.92</v>
+        <v>287</v>
       </c>
       <c r="E26" t="n">
-        <v>12.148</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>353.82</v>
+        <v>133.94</v>
       </c>
       <c r="D27" t="n">
-        <v>445.82</v>
+        <v>230.28</v>
       </c>
       <c r="E27" t="n">
-        <v>2.808</v>
+        <v>18.332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>469.44</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
-        <v>533.42</v>
+        <v>353.6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5679999999999999</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>533.42</v>
+        <v>353.6</v>
       </c>
       <c r="D29" t="n">
-        <v>633.58</v>
+        <v>407.9</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>272.76</v>
+        <v>127.12</v>
       </c>
       <c r="D30" t="n">
-        <v>323.52</v>
+        <v>199.02</v>
       </c>
       <c r="E30" t="n">
-        <v>8.327999999999999</v>
+        <v>17.508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>445.82</v>
+        <v>178.3</v>
       </c>
       <c r="D31" t="n">
-        <v>489.22</v>
+        <v>229.02</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08799999999999999</v>
+        <v>17.608</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>489.22</v>
+        <v>430.44</v>
       </c>
       <c r="D32" t="n">
-        <v>560.9400000000001</v>
+        <v>512.29</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1051,132 +1051,132 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>304.92</v>
+        <v>512.29</v>
       </c>
       <c r="D33" t="n">
-        <v>378.92</v>
+        <v>566.03</v>
       </c>
       <c r="E33" t="n">
-        <v>8.848000000000001</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>560.9400000000001</v>
+        <v>230.28</v>
       </c>
       <c r="D34" t="n">
-        <v>636.8</v>
+        <v>288.1</v>
       </c>
       <c r="E34" t="n">
-        <v>26.064</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>378.92</v>
+        <v>407.9</v>
       </c>
       <c r="D35" t="n">
-        <v>437.06</v>
+        <v>472.12</v>
       </c>
       <c r="E35" t="n">
-        <v>6.144</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>66.73999999999999</v>
+        <v>472.12</v>
       </c>
       <c r="D36" t="n">
-        <v>123.56</v>
+        <v>558.5</v>
       </c>
       <c r="E36" t="n">
-        <v>22.444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>323.52</v>
+        <v>558.5</v>
       </c>
       <c r="D37" t="n">
-        <v>372.66</v>
+        <v>621.1</v>
       </c>
       <c r="E37" t="n">
-        <v>4.544</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>372.66</v>
+        <v>362.88</v>
       </c>
       <c r="D38" t="n">
-        <v>419.26</v>
+        <v>432.88</v>
       </c>
       <c r="E38" t="n">
-        <v>0.524</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>419.26</v>
+        <v>432.88</v>
       </c>
       <c r="D39" t="n">
-        <v>509.71</v>
+        <v>496.7</v>
       </c>
       <c r="E39" t="n">
         <v>30</v>
@@ -1184,211 +1184,211 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>97.81999999999999</v>
+        <v>496.7</v>
       </c>
       <c r="D40" t="n">
-        <v>182.46</v>
+        <v>543.62</v>
       </c>
       <c r="E40" t="n">
-        <v>18.684</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>636.8</v>
+        <v>288.1</v>
       </c>
       <c r="D41" t="n">
-        <v>693.8</v>
+        <v>338.92</v>
       </c>
       <c r="E41" t="n">
-        <v>21.984</v>
+        <v>10.728</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>182.46</v>
+        <v>566.03</v>
       </c>
       <c r="D42" t="n">
-        <v>250.46</v>
+        <v>620.3099999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>14.484</v>
+        <v>23.488</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>250.46</v>
+        <v>543.62</v>
       </c>
       <c r="D43" t="n">
-        <v>291.68</v>
+        <v>594.12</v>
       </c>
       <c r="E43" t="n">
-        <v>11.492</v>
+        <v>23.088</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>291.68</v>
+        <v>594.12</v>
       </c>
       <c r="D44" t="n">
-        <v>357</v>
+        <v>638.64</v>
       </c>
       <c r="E44" t="n">
-        <v>8.58</v>
+        <v>20.256</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>123.56</v>
+        <v>199.02</v>
       </c>
       <c r="D45" t="n">
-        <v>168.8</v>
+        <v>274.48</v>
       </c>
       <c r="E45" t="n">
-        <v>19.54</v>
+        <v>13.572</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>633.58</v>
+        <v>338.92</v>
       </c>
       <c r="D46" t="n">
-        <v>702.46</v>
+        <v>414.86</v>
       </c>
       <c r="E46" t="n">
-        <v>26.752</v>
+        <v>6.724</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>357</v>
+        <v>638.64</v>
       </c>
       <c r="D47" t="n">
-        <v>409.7</v>
+        <v>720.64</v>
       </c>
       <c r="E47" t="n">
-        <v>4.94</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>409.7</v>
+        <v>620.3099999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>491.04</v>
+        <v>707.51</v>
       </c>
       <c r="E48" t="n">
-        <v>1.916</v>
+        <v>17.888</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>491.04</v>
+        <v>229.02</v>
       </c>
       <c r="D49" t="n">
-        <v>593.61</v>
+        <v>303.9</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>168.8</v>
+        <v>414.86</v>
       </c>
       <c r="D50" t="n">
-        <v>245.98</v>
+        <v>460.48</v>
       </c>
       <c r="E50" t="n">
-        <v>15.452</v>
+        <v>3.292</v>
       </c>
     </row>
     <row r="51">
@@ -1397,55 +1397,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>593.61</v>
+        <v>621.1</v>
       </c>
       <c r="D51" t="n">
-        <v>653.63</v>
+        <v>680.84</v>
       </c>
       <c r="E51" t="n">
-        <v>27.168</v>
+        <v>22.056</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>693.8</v>
+        <v>303.9</v>
       </c>
       <c r="D52" t="n">
-        <v>742.96</v>
+        <v>350.34</v>
       </c>
       <c r="E52" t="n">
-        <v>18.708</v>
+        <v>9.236000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>742.96</v>
+        <v>680.84</v>
       </c>
       <c r="D53" t="n">
-        <v>828.1799999999999</v>
+        <v>744.8200000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>14.756</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="54">
@@ -1454,55 +1454,55 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>509.71</v>
+        <v>350.34</v>
       </c>
       <c r="D54" t="n">
-        <v>591.25</v>
+        <v>407.32</v>
       </c>
       <c r="E54" t="n">
-        <v>25.996</v>
+        <v>5.648</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>653.63</v>
+        <v>407.32</v>
       </c>
       <c r="D55" t="n">
-        <v>705.73</v>
+        <v>450.82</v>
       </c>
       <c r="E55" t="n">
-        <v>23.088</v>
+        <v>2.928</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>245.98</v>
+        <v>274.48</v>
       </c>
       <c r="D56" t="n">
-        <v>300.58</v>
+        <v>325.98</v>
       </c>
       <c r="E56" t="n">
-        <v>11.612</v>
+        <v>9.552</v>
       </c>
     </row>
     <row r="57">
@@ -1511,188 +1511,188 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>437.06</v>
+        <v>460.48</v>
       </c>
       <c r="D57" t="n">
-        <v>514.04</v>
+        <v>550.5</v>
       </c>
       <c r="E57" t="n">
-        <v>2.556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>702.46</v>
+        <v>550.5</v>
       </c>
       <c r="D58" t="n">
-        <v>767.36</v>
+        <v>619.9</v>
       </c>
       <c r="E58" t="n">
-        <v>22.372</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>514.04</v>
+        <v>325.98</v>
       </c>
       <c r="D59" t="n">
-        <v>580.9299999999999</v>
+        <v>381.58</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>5.132</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>580.9299999999999</v>
+        <v>450.82</v>
       </c>
       <c r="D60" t="n">
-        <v>652.9299999999999</v>
+        <v>516.86</v>
       </c>
       <c r="E60" t="n">
-        <v>24.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>767.36</v>
+        <v>516.86</v>
       </c>
       <c r="D61" t="n">
-        <v>813.1</v>
+        <v>577.26</v>
       </c>
       <c r="E61" t="n">
-        <v>19.908</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>300.58</v>
+        <v>577.26</v>
       </c>
       <c r="D62" t="n">
-        <v>352.68</v>
+        <v>622.58</v>
       </c>
       <c r="E62" t="n">
-        <v>7.532</v>
+        <v>21.748</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>828.1799999999999</v>
+        <v>622.58</v>
       </c>
       <c r="D63" t="n">
-        <v>877.38</v>
+        <v>677.62</v>
       </c>
       <c r="E63" t="n">
-        <v>10.976</v>
+        <v>18.844</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>591.25</v>
+        <v>619.9</v>
       </c>
       <c r="D64" t="n">
-        <v>651.77</v>
+        <v>659.28</v>
       </c>
       <c r="E64" t="n">
-        <v>22.564</v>
+        <v>23.892</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>651.77</v>
+        <v>659.28</v>
       </c>
       <c r="D65" t="n">
-        <v>717.17</v>
+        <v>742.08</v>
       </c>
       <c r="E65" t="n">
-        <v>18.644</v>
+        <v>19.692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>717.17</v>
+        <v>381.58</v>
       </c>
       <c r="D66" t="n">
-        <v>761.55</v>
+        <v>430.84</v>
       </c>
       <c r="E66" t="n">
-        <v>15.836</v>
+        <v>1.336</v>
       </c>
     </row>
     <row r="67">
@@ -1701,60 +1701,60 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>813.1</v>
+        <v>430.84</v>
       </c>
       <c r="D67" t="n">
-        <v>892.46</v>
+        <v>529.5700000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>17.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>705.73</v>
+        <v>720.64</v>
       </c>
       <c r="D68" t="n">
-        <v>766.35</v>
+        <v>804.14</v>
       </c>
       <c r="E68" t="n">
-        <v>19.656</v>
+        <v>12.876</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>766.35</v>
+        <v>529.5700000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>842.25</v>
+        <v>596.6900000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>14.676</v>
+        <v>26.448</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1762,13 +1762,32 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>652.9299999999999</v>
+        <v>677.62</v>
       </c>
       <c r="D70" t="n">
-        <v>711.17</v>
+        <v>720.86</v>
       </c>
       <c r="E70" t="n">
-        <v>21.776</v>
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>pond58</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>744.8200000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>820.86</v>
+      </c>
+      <c r="E71" t="n">
+        <v>16.224</v>
       </c>
     </row>
   </sheetData>
